--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3546.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3546.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.789818576440794</v>
+        <v>0.4739503264427185</v>
       </c>
       <c r="B1">
-        <v>1.888244728344116</v>
+        <v>0.4614225625991821</v>
       </c>
       <c r="C1">
-        <v>1.950550136370092</v>
+        <v>0.4774905443191528</v>
       </c>
       <c r="D1">
-        <v>2.600878109392063</v>
+        <v>0.637269139289856</v>
       </c>
       <c r="E1">
-        <v>3.274523625162405</v>
+        <v>0.7532960772514343</v>
       </c>
     </row>
   </sheetData>
